--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>958722.6664737851</v>
+        <v>972449.0246112027</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
         <v>634939.1625057048</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="C4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>447024.6202723928</v>
+        <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="G4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="H4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="I4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="J4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="K4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="L4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="M4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="N4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="O4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="P4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154286.9422333121</v>
+        <v>154286.9422333119</v>
       </c>
       <c r="C6" t="n">
-        <v>154286.942233312</v>
+        <v>154286.9422333118</v>
       </c>
       <c r="D6" t="n">
-        <v>154286.942233312</v>
+        <v>154286.9422333119</v>
       </c>
       <c r="E6" t="n">
-        <v>-20038.73047613955</v>
+        <v>-20038.73047613961</v>
       </c>
       <c r="F6" t="n">
         <v>113061.2695238605</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972449.0246112027</v>
+        <v>888663.6228495782</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
         <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="E2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="F2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="G2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="H2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="I2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="J2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="K2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="L2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="M2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="N2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="O2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="P2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
     </row>
     <row r="3">
@@ -26429,37 +26429,37 @@
         <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
+        <v>60523.96800341976</v>
+      </c>
+      <c r="G4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>60523.96800341976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>60523.96800341977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154286.9422333119</v>
+        <v>154242.8064546309</v>
       </c>
       <c r="C6" t="n">
-        <v>154286.9422333118</v>
+        <v>154242.8064546307</v>
       </c>
       <c r="D6" t="n">
-        <v>154286.9422333119</v>
+        <v>154242.8064546306</v>
       </c>
       <c r="E6" t="n">
-        <v>-20038.73047613961</v>
+        <v>-34848.74731525342</v>
       </c>
       <c r="F6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474665</v>
       </c>
       <c r="G6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474664</v>
       </c>
       <c r="H6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474665</v>
       </c>
       <c r="I6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474664</v>
       </c>
       <c r="J6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474665</v>
       </c>
       <c r="K6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474664</v>
       </c>
       <c r="L6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474665</v>
       </c>
       <c r="M6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474664</v>
       </c>
       <c r="N6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474665</v>
       </c>
       <c r="O6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474664</v>
       </c>
       <c r="P6" t="n">
-        <v>113061.2695238605</v>
+        <v>98251.25268474665</v>
       </c>
     </row>
   </sheetData>
